--- a/Documents/추가양식/0717_고재호_나웅수_학부융합프로그램 재료신청.xls.xlsx
+++ b/Documents/추가양식/0717_고재호_나웅수_학부융합프로그램 재료신청.xls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Im Yongsik\Documents\GitHub\Cookie\Documents\추가양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImYongsik\Documents\GitHub\Cookie\Documents\추가양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D81F8-5AF5-43B9-8F08-5BCEEC84D985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C8C25-89A4-42DB-97DF-BF0DB143DFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국립대학육성사업" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>2020학년도 국립대학육성사업 예산요구서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1427,11 +1427,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 제작 재료비 : 540,000 원</t>
+    <t>논문등록비 : 400,000 원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>논문등록비 : 400,000 원</t>
+    <t>회의비 :  300,000원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 제작 재료비 : 740,000 원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2065,44 +2069,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2128,23 +2105,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2433,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2452,63 +2456,63 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="5" spans="2:7" ht="20.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="20.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7">
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="54" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7" ht="54" customHeight="1">
-      <c r="B9" s="45"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="B10" s="7"/>
@@ -2656,206 +2660,206 @@
     </row>
     <row r="22" spans="1:15" ht="17.25" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="41" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="39" t="s">
+      <c r="F22" s="51"/>
+      <c r="G22" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="20"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="5">
         <v>15</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="9">
+        <v>300</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="9">
-        <v>500</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="34"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:15">
       <c r="B25" s="5">
         <v>16</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="9">
         <v>160</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34" t="s">
+      <c r="M25" s="48"/>
+      <c r="N25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="34"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:15">
       <c r="B26" s="5">
         <v>17</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="34"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="44"/>
       <c r="G26" s="9">
-        <v>540</v>
-      </c>
-      <c r="L26" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="L26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34" t="s">
+      <c r="M26" s="48"/>
+      <c r="N26" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="34"/>
+      <c r="O26" s="44"/>
     </row>
     <row r="27" spans="1:15">
       <c r="B27" s="5">
         <v>18</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="34"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="9">
         <v>200</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34" t="s">
+      <c r="M27" s="48"/>
+      <c r="N27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="34"/>
+      <c r="O27" s="44"/>
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="5">
         <v>19</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34" t="s">
+      <c r="M28" s="48"/>
+      <c r="N28" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="34"/>
+      <c r="O28" s="44"/>
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="5">
         <v>20</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="34"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="44"/>
       <c r="G29" s="9">
-        <v>400</v>
-      </c>
-      <c r="L29" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34" t="s">
+      <c r="M29" s="48"/>
+      <c r="N29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O29" s="34"/>
+      <c r="O29" s="44"/>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="5">
         <v>21</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="9">
         <v>200</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34" t="s">
+      <c r="M30" s="48"/>
+      <c r="N30" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="44"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="10">
         <f>SUM(G24:G30)</f>
         <v>2000</v>
@@ -2863,32 +2867,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="L28:M28"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N24:O24"/>
@@ -2902,6 +2880,32 @@
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C22:D23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -3506,23 +3510,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1">
       <c r="A3" s="22" t="s">
@@ -3543,7 +3547,7 @@
       <c r="F3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="23" t="s">
@@ -8132,23 +8136,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1">
       <c r="A3" s="22" t="s">
@@ -8193,7 +8197,7 @@
         <f>D4*E4</f>
         <v>41600</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="33" t="s">
         <v>100</v>
       </c>
     </row>
